--- a/prob6/18.xlsx
+++ b/prob6/18.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pluttan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amd\PycharmProjects\infegerep\prob6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FB9506-7AAD-B247-910A-79A3D31C2A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="500" windowWidth="29280" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="495" windowWidth="29280" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="2" r:id="rId1"/>
     <sheet name="18" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Перед каждым запуском Робота в каждой клетке квадрата лежит монета достоинством от 1 до 50. Посетив клетку, Робот забирает монету с собой; это также относится к начальной и конечной клеткам маршрута Робота. Роботу необходимо добраться до правой нижней клетки поля. При разных запусках итоговые накопленные суммы могут различаться.</t>
   </si>
@@ -227,12 +226,15 @@
       <t> — в соседнюю нижнюю. Квадрат ограничен внешними стенами. Между соседними клетками квадрата также могут быть внутренние стены. Сквозь стену Робот пройти не может. Однако у робота есть джампер, с помощью которого робот может перепрыгнуть через стену. К сожалению, после прыжка джампер ломается, поэтому им можно воспользоваться только один раз.</t>
     </r>
   </si>
+  <si>
+    <t>1336                                                   1361</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,13 +275,34 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -371,10 +394,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,9 +436,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,23 +597,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -623,23 +632,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -815,19 +807,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C7672E-235A-AB49-9C9A-9E9BEBA6BF95}">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="166" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="126">
+    <row r="1" spans="1:1" ht="121.5">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -835,7 +827,7 @@
     <row r="2" spans="1:1">
       <c r="A2" s="11"/>
     </row>
-    <row r="3" spans="1:1" ht="63">
+    <row r="3" spans="1:1" ht="81">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -843,7 +835,7 @@
     <row r="4" spans="1:1">
       <c r="A4" s="11"/>
     </row>
-    <row r="5" spans="1:1" ht="63">
+    <row r="5" spans="1:1" ht="60.75">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -851,7 +843,7 @@
     <row r="6" spans="1:1">
       <c r="A6" s="11"/>
     </row>
-    <row r="7" spans="1:1" ht="42">
+    <row r="7" spans="1:1" ht="40.5">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
@@ -859,9 +851,14 @@
     <row r="8" spans="1:1">
       <c r="A8" s="11"/>
     </row>
-    <row r="9" spans="1:1" ht="21">
+    <row r="9" spans="1:1" ht="20.25">
       <c r="A9" s="12" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="92.25">
+      <c r="A27" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -871,19 +868,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView zoomScale="53" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="28" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="27.95" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="5.83203125" style="4"/>
+    <col min="1" max="16384" width="5.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28" customHeight="1" thickTop="1">
+    <row r="1" spans="1:23" ht="27.95" customHeight="1" thickTop="1">
       <c r="A1" s="1">
         <v>41</v>
       </c>
@@ -944,8 +941,11 @@
       <c r="T1" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="28" customHeight="1">
+      <c r="W1" s="4">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="27.95" customHeight="1">
       <c r="A2" s="5">
         <v>9</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="28" customHeight="1" thickBot="1">
+    <row r="3" spans="1:23" ht="27.95" customHeight="1" thickBot="1">
       <c r="A3" s="5">
         <v>16</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="28" customHeight="1" thickTop="1">
+    <row r="4" spans="1:23" ht="27.95" customHeight="1" thickTop="1">
       <c r="A4" s="5">
         <v>19</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28" customHeight="1">
+    <row r="5" spans="1:23" ht="27.95" customHeight="1">
       <c r="A5" s="5">
         <v>17</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="28" customHeight="1">
+    <row r="6" spans="1:23" ht="27.95" customHeight="1">
       <c r="A6" s="5">
         <v>10</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="28" customHeight="1">
+    <row r="7" spans="1:23" ht="27.95" customHeight="1">
       <c r="A7" s="5">
         <v>12</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="28" customHeight="1">
+    <row r="8" spans="1:23" ht="27.95" customHeight="1">
       <c r="A8" s="5">
         <v>25</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="28" customHeight="1">
+    <row r="9" spans="1:23" ht="27.95" customHeight="1">
       <c r="A9" s="5">
         <v>36</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="28" customHeight="1">
+    <row r="10" spans="1:23" ht="27.95" customHeight="1">
       <c r="A10" s="5">
         <v>25</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="28" customHeight="1">
+    <row r="11" spans="1:23" ht="27.95" customHeight="1">
       <c r="A11" s="5">
         <v>20</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="28" customHeight="1">
+    <row r="12" spans="1:23" ht="27.95" customHeight="1">
       <c r="A12" s="5">
         <v>14</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="28" customHeight="1">
+    <row r="13" spans="1:23" ht="27.95" customHeight="1">
       <c r="A13" s="5">
         <v>34</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="28" customHeight="1">
+    <row r="14" spans="1:23" ht="27.95" customHeight="1">
       <c r="A14" s="5">
         <v>37</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="28" customHeight="1">
+    <row r="15" spans="1:23" ht="27.95" customHeight="1">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="28" customHeight="1">
+    <row r="16" spans="1:23" ht="27.95" customHeight="1">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="28" customHeight="1">
+    <row r="17" spans="1:20" ht="27.95" customHeight="1">
       <c r="A17" s="5">
         <v>35</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="28" customHeight="1" thickBot="1">
+    <row r="18" spans="1:20" ht="27.95" customHeight="1" thickBot="1">
       <c r="A18" s="5">
         <v>5</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="28" customHeight="1" thickTop="1">
+    <row r="19" spans="1:20" ht="27.95" customHeight="1" thickTop="1">
       <c r="A19" s="5">
         <v>38</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="28" customHeight="1" thickBot="1">
+    <row r="20" spans="1:20" ht="27.95" customHeight="1" thickBot="1">
       <c r="A20" s="7">
         <v>4</v>
       </c>
@@ -2123,7 +2123,1649 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="28" customHeight="1" thickTop="1"/>
+    <row r="21" spans="1:20" ht="27.95" customHeight="1" thickTop="1"/>
+    <row r="22" spans="1:20" ht="27.95" customHeight="1" thickBot="1"/>
+    <row r="23" spans="1:20" ht="27.95" customHeight="1" thickTop="1">
+      <c r="A23" s="1">
+        <f>A1</f>
+        <v>41</v>
+      </c>
+      <c r="B23" s="2">
+        <f>A23+B1</f>
+        <v>48</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:T23" si="0">B23+C1</f>
+        <v>74</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="0"/>
+        <v>329</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="0"/>
+        <v>338</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="0"/>
+        <v>437</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="0"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A24" s="5">
+        <f>A23+A2</f>
+        <v>50</v>
+      </c>
+      <c r="B24" s="4">
+        <f>MAX(B23,A24) +B2</f>
+        <v>99</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:T38" si="1">MAX(C23,B24) +C2</f>
+        <v>107</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>213</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="1"/>
+        <v>334</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="1"/>
+        <v>346</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="1"/>
+        <v>376</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="1"/>
+        <v>423</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="1"/>
+        <v>443</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="T24" s="6">
+        <f t="shared" si="1"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="27.95" customHeight="1" thickBot="1">
+      <c r="A25" s="5">
+        <f t="shared" ref="A25:A42" si="2">A24+A3</f>
+        <v>66</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" ref="B25:B42" si="3">MAX(B24,A25) +B3</f>
+        <v>116</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="1"/>
+        <v>411</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="1"/>
+        <v>456</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="1"/>
+        <v>514</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="1"/>
+        <v>562</v>
+      </c>
+      <c r="T25" s="6">
+        <f t="shared" si="1"/>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="27.95" customHeight="1" thickTop="1">
+      <c r="A26" s="5">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="D26" s="4">
+        <f>MAX(C26) +D4</f>
+        <v>174</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" ref="E26:P26" si="4">MAX(D26) +E4</f>
+        <v>218</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="4"/>
+        <v>332</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="4"/>
+        <v>373</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="4"/>
+        <v>406</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="4"/>
+        <v>431</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="4"/>
+        <v>432</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="4"/>
+        <v>470</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="4"/>
+        <v>506</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>MAX(Q25) +Q4</f>
+        <v>488</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="1"/>
+        <v>547</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="1"/>
+        <v>587</v>
+      </c>
+      <c r="T26" s="6">
+        <f t="shared" si="1"/>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A27" s="5">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="1"/>
+        <v>173</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="1"/>
+        <v>313</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="1"/>
+        <v>423</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="1"/>
+        <v>457</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="1"/>
+        <v>487</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="1"/>
+        <v>524</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="1"/>
+        <v>563</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="1"/>
+        <v>602</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="1"/>
+        <v>633</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="1"/>
+        <v>641</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" ref="Q27:Q37" si="5">MAX(Q26) +Q5</f>
+        <v>520</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="1"/>
+        <v>571</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="1"/>
+        <v>603</v>
+      </c>
+      <c r="T27" s="6">
+        <f t="shared" si="1"/>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A28" s="5">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>382</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>436</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="1"/>
+        <v>461</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
+        <v>484</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="1"/>
+        <v>533</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="1"/>
+        <v>535</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="1"/>
+        <v>589</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="1"/>
+        <v>628</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="1"/>
+        <v>714</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="5"/>
+        <v>534</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="1"/>
+        <v>620</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="T28" s="6">
+        <f t="shared" si="1"/>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A29" s="5">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>411</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="1"/>
+        <v>515</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="1"/>
+        <v>557</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="1"/>
+        <v>606</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="1"/>
+        <v>611</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="1"/>
+        <v>635</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="1"/>
+        <v>638</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="1"/>
+        <v>683</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="1"/>
+        <v>734</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="5"/>
+        <v>567</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="1"/>
+        <v>639</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="1"/>
+        <v>687</v>
+      </c>
+      <c r="T29" s="6">
+        <f t="shared" si="1"/>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A30" s="5">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="1"/>
+        <v>296</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>415</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="1"/>
+        <v>469</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="1"/>
+        <v>526</v>
+      </c>
+      <c r="J30" s="4">
+        <f>MAX(J29) +J8</f>
+        <v>571</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="1"/>
+        <v>647</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="1"/>
+        <v>693</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="1"/>
+        <v>708</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="1"/>
+        <v>711</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="1"/>
+        <v>731</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" si="1"/>
+        <v>748</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" si="5"/>
+        <v>588</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="1"/>
+        <v>644</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="1"/>
+        <v>719</v>
+      </c>
+      <c r="T30" s="6">
+        <f t="shared" si="1"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A31" s="5">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="3"/>
+        <v>289</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="1"/>
+        <v>361</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="1"/>
+        <v>419</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="1"/>
+        <v>466</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="1"/>
+        <v>506</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="1"/>
+        <v>557</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" ref="J31:J40" si="6">MAX(J30) +J9</f>
+        <v>599</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="1"/>
+        <v>689</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="1"/>
+        <v>705</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="1"/>
+        <v>718</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="1"/>
+        <v>724</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="1"/>
+        <v>779</v>
+      </c>
+      <c r="P31" s="6">
+        <f t="shared" si="1"/>
+        <v>785</v>
+      </c>
+      <c r="Q31" s="4">
+        <f t="shared" si="5"/>
+        <v>594</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" si="1"/>
+        <v>762</v>
+      </c>
+      <c r="T31" s="6">
+        <f t="shared" si="1"/>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A32" s="5">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="1"/>
+        <v>329</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="1"/>
+        <v>468</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="1"/>
+        <v>534</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="1"/>
+        <v>574</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="6"/>
+        <v>608</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="1"/>
+        <v>703</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="1"/>
+        <v>772</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="1"/>
+        <v>818</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" si="1"/>
+        <v>847</v>
+      </c>
+      <c r="P32" s="6">
+        <f t="shared" si="1"/>
+        <v>878</v>
+      </c>
+      <c r="Q32" s="4">
+        <f t="shared" si="5"/>
+        <v>627</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" si="1"/>
+        <v>691</v>
+      </c>
+      <c r="S32" s="4">
+        <f t="shared" si="1"/>
+        <v>784</v>
+      </c>
+      <c r="T32" s="6">
+        <f t="shared" si="1"/>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A33" s="5">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="1"/>
+        <v>392</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="1"/>
+        <v>517</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="1"/>
+        <v>567</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="1"/>
+        <v>616</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="1"/>
+        <v>657</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="6"/>
+        <v>630</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="1"/>
+        <v>842</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="1"/>
+        <v>868</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="1"/>
+        <v>896</v>
+      </c>
+      <c r="P33" s="6">
+        <f t="shared" si="1"/>
+        <v>923</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="5"/>
+        <v>631</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="1"/>
+        <v>702</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="1"/>
+        <v>815</v>
+      </c>
+      <c r="T33" s="6">
+        <f t="shared" si="1"/>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A34" s="5">
+        <f t="shared" si="2"/>
+        <v>244</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="3"/>
+        <v>333</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="1"/>
+        <v>443</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
+        <v>477</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="1"/>
+        <v>547</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="1"/>
+        <v>578</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="1"/>
+        <v>666</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="1"/>
+        <v>715</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="6"/>
+        <v>679</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="1"/>
+        <v>737</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="1"/>
+        <v>837</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="1"/>
+        <v>888</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="1"/>
+        <v>890</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="1"/>
+        <v>925</v>
+      </c>
+      <c r="P34" s="6">
+        <f t="shared" si="1"/>
+        <v>927</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="5"/>
+        <v>635</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" si="1"/>
+        <v>846</v>
+      </c>
+      <c r="T34" s="6">
+        <f t="shared" si="1"/>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A35" s="5">
+        <f t="shared" si="2"/>
+        <v>278</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="1"/>
+        <v>467</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="1"/>
+        <v>519</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="1"/>
+        <v>577</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="1"/>
+        <v>590</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="1"/>
+        <v>691</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="1"/>
+        <v>722</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="6"/>
+        <v>729</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="1"/>
+        <v>785</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="1"/>
+        <v>873</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="1"/>
+        <v>919</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="1"/>
+        <v>955</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="1"/>
+        <v>991</v>
+      </c>
+      <c r="P35" s="6">
+        <f t="shared" si="1"/>
+        <v>1016</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="5"/>
+        <v>684</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="1"/>
+        <v>788</v>
+      </c>
+      <c r="S35" s="4">
+        <f t="shared" si="1"/>
+        <v>895</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="1"/>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A36" s="5">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="1"/>
+        <v>477</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="1"/>
+        <v>522</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="1"/>
+        <v>568</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="1"/>
+        <v>583</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="1"/>
+        <v>611</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="1"/>
+        <v>716</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="1"/>
+        <v>772</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="6"/>
+        <v>733</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="1"/>
+        <v>824</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="1"/>
+        <v>897</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="1"/>
+        <v>946</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="1"/>
+        <v>964</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="1"/>
+        <v>992</v>
+      </c>
+      <c r="P36" s="6">
+        <f t="shared" si="1"/>
+        <v>1033</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="5"/>
+        <v>707</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="1"/>
+        <v>790</v>
+      </c>
+      <c r="S36" s="4">
+        <f t="shared" si="1"/>
+        <v>914</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" si="1"/>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A37" s="5">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="3"/>
+        <v>379</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="1"/>
+        <v>541</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="1"/>
+        <v>573</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="1"/>
+        <v>607</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="1"/>
+        <v>634</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="1"/>
+        <v>733</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="1"/>
+        <v>803</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="6"/>
+        <v>775</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="1"/>
+        <v>833</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="1"/>
+        <v>904</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="1"/>
+        <v>988</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="P37" s="6">
+        <f t="shared" si="1"/>
+        <v>1036</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="5"/>
+        <v>738</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="1"/>
+        <v>823</v>
+      </c>
+      <c r="S37" s="4">
+        <f t="shared" si="1"/>
+        <v>948</v>
+      </c>
+      <c r="T37" s="6">
+        <f t="shared" si="1"/>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A38" s="5">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="3"/>
+        <v>428</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="1"/>
+        <v>539</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="1"/>
+        <v>585</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
+        <v>609</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" ref="F38:F42" si="7">MAX(F37,E38) +F16</f>
+        <v>648</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" ref="G38:G42" si="8">MAX(G37,F38) +G16</f>
+        <v>664</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" ref="H38:H42" si="9">MAX(H37,G38) +H16</f>
+        <v>760</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" ref="I38:I42" si="10">MAX(I37,H38) +I16</f>
+        <v>819</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="6"/>
+        <v>817</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" ref="K38:K42" si="11">MAX(K37,J38) +K16</f>
+        <v>860</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" ref="L38:L42" si="12">MAX(L37,K38) +L16</f>
+        <v>926</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" ref="M38:M42" si="13">MAX(M37,L38) +M16</f>
+        <v>1015</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" ref="N38:N42" si="14">MAX(N37,M38) +N16</f>
+        <v>1057</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" ref="O38:O42" si="15">MAX(O37,N38) +O16</f>
+        <v>1079</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" ref="P38:P42" si="16">MAX(P37,O38) +P16</f>
+        <v>1093</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" ref="Q38:Q42" si="17">MAX(Q37,P38) +Q16</f>
+        <v>1119</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" ref="R38:R42" si="18">MAX(R37,Q38) +R16</f>
+        <v>1166</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" ref="S38:S42" si="19">MAX(S37,R38) +S16</f>
+        <v>1190</v>
+      </c>
+      <c r="T38" s="6">
+        <f t="shared" ref="T38:T42" si="20">MAX(T37,S38) +T16</f>
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="27.95" customHeight="1">
+      <c r="A39" s="5">
+        <f t="shared" si="2"/>
+        <v>363</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="3"/>
+        <v>463</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" ref="C39:C42" si="21">MAX(C38,B39) +C17</f>
+        <v>541</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" ref="D39:D42" si="22">MAX(D38,C39) +D17</f>
+        <v>589</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" ref="E39:E42" si="23">MAX(E38,D39) +E17</f>
+        <v>628</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="7"/>
+        <v>672</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="8"/>
+        <v>710</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="9"/>
+        <v>790</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="10"/>
+        <v>821</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="6"/>
+        <v>822</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="11"/>
+        <v>910</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="12"/>
+        <v>953</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="13"/>
+        <v>1036</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="14"/>
+        <v>1079</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="15"/>
+        <v>1118</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="16"/>
+        <v>1143</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" si="17"/>
+        <v>1158</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="18"/>
+        <v>1173</v>
+      </c>
+      <c r="S39" s="4">
+        <f t="shared" si="19"/>
+        <v>1207</v>
+      </c>
+      <c r="T39" s="6">
+        <f t="shared" si="20"/>
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="27.95" customHeight="1" thickBot="1">
+      <c r="A40" s="5">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="21"/>
+        <v>558</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="22"/>
+        <v>631</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="23"/>
+        <v>658</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="7"/>
+        <v>717</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="8"/>
+        <v>759</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="9"/>
+        <v>805</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="10"/>
+        <v>853</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="6"/>
+        <v>860</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="11"/>
+        <v>949</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="12"/>
+        <v>954</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="13"/>
+        <v>1071</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="14"/>
+        <v>1123</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="15"/>
+        <v>1125</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="16"/>
+        <v>1192</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="17"/>
+        <v>1208</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="18"/>
+        <v>1213</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" si="19"/>
+        <v>1234</v>
+      </c>
+      <c r="T40" s="6">
+        <f t="shared" si="20"/>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="27.95" customHeight="1" thickTop="1">
+      <c r="A41" s="5">
+        <f t="shared" si="2"/>
+        <v>406</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="3"/>
+        <v>486</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="21"/>
+        <v>568</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="22"/>
+        <v>636</v>
+      </c>
+      <c r="E41" s="4">
+        <f>MAX(D41) +E19</f>
+        <v>662</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" ref="F41:I41" si="24">MAX(E41) +F19</f>
+        <v>705</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="24"/>
+        <v>721</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="24"/>
+        <v>762</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="24"/>
+        <v>786</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" ref="J38:J42" si="25">MAX(J40,I41) +J19</f>
+        <v>881</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="11"/>
+        <v>982</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="12"/>
+        <v>987</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="13"/>
+        <v>1075</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="14"/>
+        <v>1155</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="15"/>
+        <v>1201</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="16"/>
+        <v>1238</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="17"/>
+        <v>1268</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="18"/>
+        <v>1277</v>
+      </c>
+      <c r="S41" s="4">
+        <f t="shared" si="19"/>
+        <v>1296</v>
+      </c>
+      <c r="T41" s="6">
+        <f t="shared" si="20"/>
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="27.95" customHeight="1" thickBot="1">
+      <c r="A42" s="7">
+        <f t="shared" si="2"/>
+        <v>410</v>
+      </c>
+      <c r="B42" s="8">
+        <f t="shared" si="3"/>
+        <v>525</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" si="21"/>
+        <v>618</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" si="22"/>
+        <v>664</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" si="23"/>
+        <v>675</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="7"/>
+        <v>734</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="8"/>
+        <v>775</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="9"/>
+        <v>785</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" si="10"/>
+        <v>797</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" si="25"/>
+        <v>912</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="11"/>
+        <v>1031</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="12"/>
+        <v>1043</v>
+      </c>
+      <c r="M42" s="8">
+        <f t="shared" si="13"/>
+        <v>1096</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" si="14"/>
+        <v>1156</v>
+      </c>
+      <c r="O42" s="8">
+        <f t="shared" si="15"/>
+        <v>1211</v>
+      </c>
+      <c r="P42" s="8">
+        <f t="shared" si="16"/>
+        <v>1242</v>
+      </c>
+      <c r="Q42" s="8">
+        <f t="shared" si="17"/>
+        <v>1277</v>
+      </c>
+      <c r="R42" s="8">
+        <f t="shared" si="18"/>
+        <v>1307</v>
+      </c>
+      <c r="S42" s="8">
+        <f t="shared" si="19"/>
+        <v>1310</v>
+      </c>
+      <c r="T42" s="9">
+        <f t="shared" si="20"/>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="27.95" customHeight="1" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
